--- a/WPStest.xlsx
+++ b/WPStest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\advis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACEBACE-FD8C-4467-B2D6-0E293B35357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949D3F9-308C-40AD-A5C4-1D5C1A27CF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17290" yWindow="1880" windowWidth="18950" windowHeight="17330" xr2:uid="{5A404EFE-BDC2-4AE7-9B1D-209F8FB4982B}"/>
   </bookViews>
@@ -35,12 +35,33 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +75,33 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,11 +118,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1AB0A-D1AE-4864-9E8A-DCC22FA8DA91}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -429,14 +479,31 @@
     <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
-        <f>1+C1</f>
-        <v>6</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1">
-        <v>5</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
